--- a/Orlando_Magic_2025-26_stats.xlsx
+++ b/Orlando_Magic_2025-26_stats.xlsx
@@ -9,8 +9,12 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assists" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rebounds" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3PM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1818,7 +1822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1829,152 +1833,676 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Player</t>
+          <t>Game Time (PST)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Points</t>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Anthony Black</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jonathan Isaac</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tyus Jones</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Desmond Bane</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Jalen Suggs</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Paolo Banchero</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Orlando Robinson</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Jase Richardson</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Jett Howard</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Franz Wagner</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tristan da Silva</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Wendell Carter Jr.</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Goga Bitadze</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Noah Penda</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>23.27272727272727</v>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>8</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>22</v>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>14.90909090909091</v>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wendell Carter Jr.</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>12.63636363636364</v>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jalen Suggs</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>12.125</v>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tristan da Silva</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10.90909090909091</v>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Anthony Black</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.72727272727273</v>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>11</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Goga Bitadze</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5.727272727272728</v>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Noah Penda</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2.833333333333333</v>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>7</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jonathan Isaac</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2.4</v>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.818181818181818</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Jett Howard</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.714285714285714</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Jase Richardson</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Orlando Robinson</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>9</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5</v>
+      </c>
+      <c r="P12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1984,6 +2512,701 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Anthony Black</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jonathan Isaac</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tyus Jones</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Desmond Bane</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Jalen Suggs</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Paolo Banchero</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Orlando Robinson</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Jase Richardson</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Jett Howard</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Franz Wagner</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tristan da Silva</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Wendell Carter Jr.</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Goga Bitadze</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Noah Penda</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2005,13 +3228,184 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Assists</t>
+          <t>Avg Points</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Paolo Banchero</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>23.27272727272727</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Franz Wagner</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Desmond Bane</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14.90909090909091</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Wendell Carter Jr.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12.63636363636364</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jalen Suggs</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12.125</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tristan da Silva</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10.90909090909091</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Anthony Black</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10.72727272727273</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Goga Bitadze</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.727272727272728</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Noah Penda</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.833333333333333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jonathan Isaac</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Tyus Jones</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.818181818181818</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jett Howard</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.714285714285714</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jase Richardson</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Orlando Robinson</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Assists</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Jalen Suggs</t>
         </is>
       </c>
@@ -2143,6 +3537,348 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>Orlando Robinson</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Rebounds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Paolo Banchero</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.090909090909092</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Wendell Carter Jr.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7.636363636363637</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Franz Wagner</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6.181818181818182</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Goga Bitadze</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5.090909090909091</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Desmond Bane</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.090909090909091</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jalen Suggs</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Anthony Black</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.272727272727273</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Tristan da Silva</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.090909090909091</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jonathan Isaac</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Noah Penda</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Tyus Jones</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jett Howard</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jase Richardson</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Orlando Robinson</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg 3PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jalen Suggs</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tristan da Silva</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.818181818181818</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Franz Wagner</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.545454545454545</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Wendell Carter Jr.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.363636363636364</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Desmond Bane</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.181818181818182</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Anthony Black</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Paolo Banchero</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Jett Howard</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Noah Penda</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jonathan Isaac</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Tyus Jones</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Goga Bitadze</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Orlando Robinson</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jase Richardson</t>
         </is>
       </c>
       <c r="B15" t="n">

--- a/Orlando_Magic_2025-26_stats.xlsx
+++ b/Orlando_Magic_2025-26_stats.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Points" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1113,6 +1114,60 @@
         <v>7</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>17</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>22</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>28</v>
+      </c>
+      <c r="M13" t="n">
+        <v>8</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>10</v>
+      </c>
+      <c r="P13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1127,7 +1182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1809,6 +1864,60 @@
       </c>
       <c r="P12" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1822,7 +1931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2504,6 +2613,60 @@
       </c>
       <c r="P12" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>9</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2517,7 +2680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3198,6 +3361,60 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3235,21 +3452,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.27272727272727</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>Paolo Banchero</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>21.66666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -3259,7 +3476,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.90909090909091</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="5">
@@ -3269,7 +3486,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.63636363636364</v>
+        <v>12.66666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -3279,27 +3496,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.125</v>
+        <v>12.33333333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tristan da Silva</t>
+          <t>Anthony Black</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.90909090909091</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Anthony Black</t>
+          <t>Tristan da Silva</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.72727272727273</v>
+        <v>10.66666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -3309,47 +3526,47 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.727272727272728</v>
+        <v>6.083333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Noah Penda</t>
+          <t>Jonathan Isaac</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.833333333333333</v>
+        <v>2.454545454545455</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jonathan Isaac</t>
+          <t>Noah Penda</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.4</v>
+        <v>2.428571428571428</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>Jett Howard</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.818181818181818</v>
+        <v>2.125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jett Howard</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.714285714285714</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="14">
@@ -3359,7 +3576,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="15">
@@ -3406,21 +3623,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jalen Suggs</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.375</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Jalen Suggs</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.363636363636363</v>
+        <v>4.222222222222222</v>
       </c>
     </row>
     <row r="4">
@@ -3430,7 +3647,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.272727272727272</v>
+        <v>4.083333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -3440,7 +3657,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.727272727272727</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="6">
@@ -3450,7 +3667,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.272727272727273</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -3460,57 +3677,57 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.636363636363636</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Goga Bitadze</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.363636363636364</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>Goga Bitadze</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.181818181818182</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jase Richardson</t>
+          <t>Tristan da Silva</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Noah Penda</t>
+          <t>Jase Richardson</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tristan da Silva</t>
+          <t>Noah Penda</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="13">
@@ -3520,7 +3737,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="14">
@@ -3530,7 +3747,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="15">
@@ -3581,7 +3798,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.090909090909092</v>
+        <v>8.666666666666666</v>
       </c>
     </row>
     <row r="3">
@@ -3591,7 +3808,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.636363636363637</v>
+        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -3601,7 +3818,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.181818181818182</v>
+        <v>6.416666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -3611,7 +3828,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.090909090909091</v>
+        <v>4.916666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -3621,7 +3838,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.090909090909091</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="7">
@@ -3631,7 +3848,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.75</v>
+        <v>3.555555555555555</v>
       </c>
     </row>
     <row r="8">
@@ -3641,7 +3858,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.272727272727273</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="9">
@@ -3651,7 +3868,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.090909090909091</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="10">
@@ -3661,7 +3878,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.1</v>
+        <v>2.363636363636364</v>
       </c>
     </row>
     <row r="11">
@@ -3671,7 +3888,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.666666666666667</v>
+        <v>1.857142857142857</v>
       </c>
     </row>
     <row r="12">
@@ -3681,7 +3898,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="13">
@@ -3691,7 +3908,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
@@ -3701,7 +3918,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="15">
@@ -3752,7 +3969,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.875</v>
+        <v>1.777777777777778</v>
       </c>
     </row>
     <row r="3">
@@ -3762,7 +3979,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.818181818181818</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="4">
@@ -3772,27 +3989,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.545454545454545</v>
+        <v>1.583333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wendell Carter Jr.</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.363636363636364</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Wendell Carter Jr.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.181818181818182</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -3802,7 +4019,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -3812,7 +4029,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="9">
@@ -3822,7 +4039,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="10">
@@ -3832,7 +4049,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="11">
@@ -3842,7 +4059,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="12">
@@ -3852,7 +4069,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -3862,7 +4079,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="14">
@@ -3883,6 +4100,304 @@
       </c>
       <c r="B15" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Team Points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Game Total Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>125</v>
+      </c>
+      <c r="D2" t="n">
+        <v>121</v>
+      </c>
+      <c r="E2" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>107</v>
+      </c>
+      <c r="D3" t="n">
+        <v>111</v>
+      </c>
+      <c r="E3" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>98</v>
+      </c>
+      <c r="D4" t="n">
+        <v>110</v>
+      </c>
+      <c r="E4" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>124</v>
+      </c>
+      <c r="D5" t="n">
+        <v>136</v>
+      </c>
+      <c r="E5" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>116</v>
+      </c>
+      <c r="D6" t="n">
+        <v>135</v>
+      </c>
+      <c r="E6" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>123</v>
+      </c>
+      <c r="D7" t="n">
+        <v>107</v>
+      </c>
+      <c r="E7" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>125</v>
+      </c>
+      <c r="D8" t="n">
+        <v>94</v>
+      </c>
+      <c r="E8" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>112</v>
+      </c>
+      <c r="D9" t="n">
+        <v>127</v>
+      </c>
+      <c r="E9" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>123</v>
+      </c>
+      <c r="D10" t="n">
+        <v>110</v>
+      </c>
+      <c r="E10" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>107</v>
+      </c>
+      <c r="D11" t="n">
+        <v>111</v>
+      </c>
+      <c r="E11" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>115</v>
+      </c>
+      <c r="D12" t="n">
+        <v>112</v>
+      </c>
+      <c r="E12" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>124</v>
+      </c>
+      <c r="D13" t="n">
+        <v>107</v>
+      </c>
+      <c r="E13" t="n">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
